--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_en.xlsx
@@ -151,13 +151,13 @@
     <t>Please repeat the outgoing good as often as necessary in order to capture all its ingredients.</t>
   </si>
   <si>
-    <t>For questions please contact Dr. Armin Weiser, +49 (30) 18412-2118, armin.weiser@bfr.bund.de</t>
-  </si>
-  <si>
     <t>In Column A starting with Line Number 20 please enter the line number of the outgoing good being the product of this ingredient. Afterwards, enter ingredient information in columns B to M.</t>
   </si>
   <si>
     <t>Inquired Company:</t>
+  </si>
+  <si>
+    <t>For questions please contact the FoodRisk-Labs team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,8 +631,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -748,21 +754,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -963,17 +954,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1071,15 +1051,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1098,10 +1069,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1225,52 +1198,80 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1278,39 +1279,15 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1318,15 +1295,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1334,14 +1307,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1349,30 +1319,14 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1380,11 +1334,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1400,110 +1354,136 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="30" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1924,7 +1904,9 @@
   </sheetPr>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1932,9 +1914,9 @@
     <col min="2" max="2" width="24.59765625" style="16" customWidth="1"/>
     <col min="3" max="4" width="12.3984375" style="16" customWidth="1"/>
     <col min="5" max="5" width="11.86328125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.3984375" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.59765625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.86328125" style="16" customWidth="1"/>
     <col min="10" max="10" width="23" style="16" customWidth="1"/>
     <col min="11" max="11" width="40" style="16" customWidth="1"/>
@@ -1945,63 +1927,63 @@
     <col min="19" max="16384" width="11.3984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="31" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:19" s="30" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="29"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="30"/>
-    </row>
-    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="36"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:19" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="14"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
@@ -2010,89 +1992,89 @@
       <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="67" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="62" t="s">
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="14"/>
       <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="64"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="69" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="62"/>
+      <c r="M5" s="60"/>
       <c r="N5" s="14"/>
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="66"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="33" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="62"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="60"/>
       <c r="N6" s="14"/>
       <c r="S6" s="14"/>
     </row>
@@ -2119,218 +2101,218 @@
       <c r="R7" s="15"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="38"/>
-    </row>
-    <row r="9" spans="1:19" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="33"/>
+    </row>
+    <row r="9" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="38"/>
-    </row>
-    <row r="10" spans="1:19" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="33"/>
+    </row>
+    <row r="10" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="38"/>
-    </row>
-    <row r="11" spans="1:19" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="38"/>
-    </row>
-    <row r="12" spans="1:19" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="33"/>
+    </row>
+    <row r="11" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
+    </row>
+    <row r="12" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38"/>
-    </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33"/>
+    </row>
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
       <c r="N13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:19" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="73" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="68" t="s">
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="62" t="s">
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="40"/>
-    </row>
-    <row r="15" spans="1:19" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="64"/>
-      <c r="B15" s="54" t="s">
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="35"/>
+    </row>
+    <row r="15" spans="1:19" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="62"/>
+      <c r="B15" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="54" t="s">
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="62"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="40"/>
-    </row>
-    <row r="16" spans="1:19" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="65"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="35"/>
+    </row>
+    <row r="16" spans="1:19" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="63"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2340,19 +2322,19 @@
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="40"/>
-    </row>
-    <row r="17" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I16" s="41"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="35"/>
+    </row>
+    <row r="17" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="3"/>
@@ -2369,7 +2351,7 @@
       <c r="N17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="2"/>
@@ -2386,7 +2368,7 @@
       <c r="N18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="2"/>
@@ -2403,7 +2385,7 @@
       <c r="N19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="18"/>
       <c r="C20" s="2"/>
@@ -2420,7 +2402,7 @@
       <c r="N20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="18"/>
       <c r="C21" s="2"/>
@@ -2437,7 +2419,7 @@
       <c r="N21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="18"/>
       <c r="C22" s="2"/>
@@ -2454,7 +2436,7 @@
       <c r="N22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
       <c r="B23" s="18"/>
       <c r="C23" s="2"/>
@@ -2471,7 +2453,7 @@
       <c r="N23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2488,7 +2470,7 @@
       <c r="N24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2505,7 +2487,7 @@
       <c r="N25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2522,7 +2504,7 @@
       <c r="N26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2539,7 +2521,7 @@
       <c r="N27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2556,7 +2538,7 @@
       <c r="N28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2573,7 +2555,7 @@
       <c r="N29" s="14"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A30" s="22"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -2590,7 +2572,7 @@
       <c r="N30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="22"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2607,7 +2589,7 @@
       <c r="N31" s="14"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A32" s="22"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -2624,7 +2606,7 @@
       <c r="N32" s="14"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A33" s="22"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2641,7 +2623,7 @@
       <c r="N33" s="14"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A34" s="22"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -2863,11 +2845,37 @@
       <c r="S46" s="14"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="42">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A12:M12"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:K16"/>
@@ -2884,41 +2892,17 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F7 F2:F3 F17:F1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F7 F17:F1048576 F3">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G7 G2:G3 G17:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G7 G17:G1048576 G3">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3 H7 H13 H17:H1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H1048576 H7 H13 H3">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_en.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Production - Backtrace" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Production - Backtrace'!$A$1:$M$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Production - Backtrace'!$A$1:$M$48</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>EAN</t>
   </si>
@@ -151,13 +151,19 @@
     <t>Please repeat the outgoing good as often as necessary in order to capture all its ingredients.</t>
   </si>
   <si>
-    <t>In Column A starting with Line Number 20 please enter the line number of the outgoing good being the product of this ingredient. Afterwards, enter ingredient information in columns B to M.</t>
-  </si>
-  <si>
     <t>Inquired Company:</t>
   </si>
   <si>
     <t>For questions please contact the FoodRisk-Labs team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
+  </si>
+  <si>
+    <t>Then, please assess the data for the next outgoing good(s) accordingly.</t>
+  </si>
+  <si>
+    <t>Digital extracts (e.g. Excel or XML files) of the company database could also be suitable. In this case you do not need to fill this template - please call us to find a solution (BfR FoodRiskLabs-Team, +49 (30) 18412-4444)</t>
+  </si>
+  <si>
+    <t>In Column A starting with Line Number x please enter the line number of the outgoing good being the product of this ingredient. Afterwards, enter ingredient information in columns B to M.</t>
   </si>
 </sst>
 </file>
@@ -1354,12 +1360,122 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="30" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="38" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1368,122 +1484,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="30" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1902,7 +1908,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -1928,21 +1934,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="30" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
+      <c r="A1" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
@@ -1951,39 +1957,39 @@
       <c r="S1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
+      <c r="A2" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:19" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="14"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
@@ -1992,75 +1998,75 @@
       <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="50" t="s">
+      <c r="E4" s="71"/>
+      <c r="F4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="65" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="60" t="s">
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="14"/>
       <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="44" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="60"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="14"/>
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="31" t="s">
         <v>10</v>
       </c>
@@ -2070,11 +2076,11 @@
       <c r="H6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="60"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="14"/>
       <c r="S6" s="14"/>
     </row>
@@ -2102,21 +2108,21 @@
       <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="60"/>
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
@@ -2125,21 +2131,21 @@
       <c r="S8" s="33"/>
     </row>
     <row r="9" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
@@ -2148,21 +2154,21 @@
       <c r="S9" s="33"/>
     </row>
     <row r="10" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
@@ -2170,22 +2176,22 @@
       <c r="R10" s="32"/>
       <c r="S10" s="33"/>
     </row>
-    <row r="11" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
+    <row r="11" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
@@ -2193,22 +2199,22 @@
       <c r="R11" s="32"/>
       <c r="S11" s="33"/>
     </row>
-    <row r="12" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
@@ -2216,117 +2222,97 @@
       <c r="R12" s="32"/>
       <c r="S12" s="33"/>
     </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
+    </row>
+    <row r="14" spans="1:19" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="14"/>
-      <c r="S13" s="14"/>
-    </row>
-    <row r="14" spans="1:19" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="62" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B16" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="45" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="66" t="s">
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="60" t="s">
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="35"/>
-    </row>
-    <row r="15" spans="1:19" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="62"/>
-      <c r="B15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="60"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="35"/>
-    </row>
-    <row r="16" spans="1:19" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="63"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="61"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
@@ -2334,59 +2320,91 @@
       <c r="R16" s="36"/>
       <c r="S16" s="35"/>
     </row>
-    <row r="17" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="S17" s="14"/>
-    </row>
-    <row r="18" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="14"/>
-      <c r="S18" s="14"/>
+    <row r="17" spans="1:19" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="66"/>
+      <c r="B17" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="64"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="35"/>
+    </row>
+    <row r="18" spans="1:19" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="67"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="57"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="35"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="14"/>
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="2"/>
       <c r="D20" s="18"/>
@@ -2403,7 +2421,7 @@
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="2"/>
       <c r="D21" s="18"/>
@@ -2456,7 +2474,7 @@
     <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
@@ -2473,7 +2491,7 @@
     <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
@@ -2827,82 +2845,118 @@
       <c r="N45" s="14"/>
       <c r="S45" s="14"/>
     </row>
-    <row r="46" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="8"/>
+    <row r="46" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A46" s="22"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="21"/>
       <c r="N46" s="14"/>
       <c r="S46" s="14"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
+    <row r="47" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A47" s="22"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="14"/>
+      <c r="S47" s="14"/>
+    </row>
+    <row r="48" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="14"/>
+      <c r="S48" s="14"/>
+    </row>
+    <row r="49" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F7 F17:F1048576 F3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F7 F19:F1048576 F3">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G7 G17:G1048576 G3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15 G7 G19:G1048576 G3">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H1048576 H7 H13 H3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19:H1048576 H7 H15 H3">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>
